--- a/biology/Botanique/Gabriel_Ameka/Gabriel_Ameka.xlsx
+++ b/biology/Botanique/Gabriel_Ameka/Gabriel_Ameka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel Komla Ameka, né en 1958 à Anfoega (Région de la Volta, Ghana), est un botaniste et universitaire ghanéen, spécialiste des plantes aquatiques, particulièrement des espèces rhéophytes et des macroalgues marines d'Afrique de l'Ouest[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Komla Ameka, né en 1958 à Anfoega (Région de la Volta, Ghana), est un botaniste et universitaire ghanéen, spécialiste des plantes aquatiques, particulièrement des espèces rhéophytes et des macroalgues marines d'Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formé à l'Université du Ghana, où il obtient son Ph.D en 2001, avec une thèse intitulée The Biology, Taxonomy and Ecology of the Podostemaceae in Ghana[1].
-Enseignant dans cette même université depuis 1988, il y est nommé professeur en 2010[1].
-Il a également dirigé l'Herbier national du Ghana entre 2004 et 2006[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formé à l'Université du Ghana, où il obtient son Ph.D en 2001, avec une thèse intitulée The Biology, Taxonomy and Ecology of the Podostemaceae in Ghana.
+Enseignant dans cette même université depuis 1988, il y est nommé professeur en 2010.
+Il a également dirigé l'Herbier national du Ghana entre 2004 et 2006.
 </t>
         </is>
       </c>
